--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL XEON 2680\Desktop\WEBDisparador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B535A-9B63-4D0A-8514-D0950EE121AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F018C3-761D-451F-8372-D0405D818362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="207">
   <si>
     <t>Pessoa</t>
   </si>
@@ -188,152 +188,472 @@
 ENVIE SIM PARA ESSE PERFIL QUE UM DE NOSSOS CONSULTORES ENTRARÁ EM CONTATO!</t>
   </si>
   <si>
-    <t>CARLOS HENRIQUE MARTINS DE SOUSA</t>
-  </si>
-  <si>
-    <t>_x000D_
-A CLARO ESTÁ LIBERANDO PARA O SEU NÚMERO_x000D_
-_x000D_
-✅10GB DE INTERNET_x000D_
-✅LIGAÇÕES ILIMITADAS PRA QUALQUER OPERADORA_x000D_
-✅WHATSAPP FACEBOOK INSTAGRAM TWITTER WAZE_x000D_
-✅DESCONTOS EM APARELHO CELULAR NAS LOJAS CLARO_x000D_
-_x000D_
-PARA SABER MAIS_x000D_
-_x000D_
-ENVIE SIM PARA ESSE PERFIL QUE UM DE NOSSOS CONSULTORES ENTRARÁ EM CONTATO!</t>
-  </si>
-  <si>
-    <t>NIVALDO VIEIRA NEVES</t>
-  </si>
-  <si>
-    <t>MARCELA CHRISTINE NASCIMENTO DA S</t>
-  </si>
-  <si>
-    <t>DEVANIR GUEDES ALVES</t>
-  </si>
-  <si>
-    <t>ELIETE FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>DEBORA BEATRIZ ANICETO DA SILVA</t>
-  </si>
-  <si>
-    <t>NAO LOCALIZADO</t>
-  </si>
-  <si>
-    <t>ANDRESSA DA CUNHA TRINDADE</t>
-  </si>
-  <si>
-    <t>MARYNA DO NASCIMENTO SAMPAIO</t>
-  </si>
-  <si>
-    <t>LUIZ CLAUDIO DA SILVA NOGUEIRA</t>
-  </si>
-  <si>
-    <t>WANDERSON SILVA VIEIRA</t>
-  </si>
-  <si>
-    <t>RUTE DE OLIVEIRA VITAL PEREIRA</t>
-  </si>
-  <si>
-    <t>SUYANE STEPHANY DA ROCHA</t>
-  </si>
-  <si>
-    <t>JOSE BARBOSA DA SILVA</t>
-  </si>
-  <si>
-    <t>GUILHERME MENDES GOMES</t>
-  </si>
-  <si>
-    <t>ANDRE ARAUJO DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>CLEIDILANE DIONISIO DA SILVA</t>
-  </si>
-  <si>
-    <t>VANESSA COELHO BRAUNA</t>
-  </si>
-  <si>
-    <t>LEONARDO VILELA MARCAL</t>
-  </si>
-  <si>
-    <t>VICENTE PEREIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>EVERSON DA SILVA VALADARES</t>
-  </si>
-  <si>
-    <t>EDUARDO HENRIQUE FARIAS</t>
-  </si>
-  <si>
-    <t>LUANA BATISTA DA SILVA MATEUS</t>
-  </si>
-  <si>
-    <t>LYANDRA KARITA SILVA FERREIRA</t>
-  </si>
-  <si>
-    <t>FRANQUILENE DA SILVA BEZERRA</t>
-  </si>
-  <si>
-    <t>THIAGO MEDEIROS DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>LEANDRO DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ISMAEL LEANDRO PEREIRA</t>
-  </si>
-  <si>
-    <t>ANDERSON NASCIMENTO SILVA</t>
-  </si>
-  <si>
-    <t>MARCOS ARLINDO LUIZ</t>
-  </si>
-  <si>
-    <t>LEIDIANE PINHEIRO MILHOME</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE ALVES COSTA</t>
-  </si>
-  <si>
-    <t>JORGE LUIS DA SILVA DE LIMA</t>
-  </si>
-  <si>
-    <t>DELCINA DE SOUZA BARBOSA</t>
-  </si>
-  <si>
-    <t>MATILDE MARQUES DA SILVA</t>
-  </si>
-  <si>
-    <t>NERIANE DE LARA</t>
-  </si>
-  <si>
-    <t>ANDREIA PEREIRA DE CALDAS</t>
-  </si>
-  <si>
-    <t>FRANCIDALVA FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>CAROLINE LUBAS</t>
-  </si>
-  <si>
-    <t>JESSICA APARECIDA DA SILVA</t>
-  </si>
-  <si>
-    <t>WANDERLEY BRUNO DA SILVA</t>
-  </si>
-  <si>
-    <t>ISAAC AJALA</t>
-  </si>
-  <si>
-    <t>DIEGO DOS SANTOS NEGREIROS</t>
-  </si>
-  <si>
-    <t>DIEGO RODRIGO PAVEDES GODOY</t>
-  </si>
-  <si>
-    <t>JOICE MARA SOARES DE ANDRADE</t>
+    <t xml:space="preserve"> EM VALIDACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DENYS DA SILVA NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TATIANE LINHARES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUZIENE DIAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARINA MENDES DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JONATHAN DE MELO MENDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUCAS FERNANDO SCIENCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCELA RAMOS DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RICARDO MAXIMO ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JORGE FERNANDO BRITO DA CUNHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MILLENA PERES BARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FERNANDO CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALANE MIRANDA DE SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RICARDO JOSE DE SOUZA GUEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAULO HENRIQUE FEITOZA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIKAELI GUIMARAES MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALEXANDRE ALMEIDA DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTONIO MIGUEL ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THAMYRYS DA SILVA VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HEBERSON ALVES DA ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELENICE BORGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABRIEL BULGUE JONCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAIANE DE JESUS CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JANAINA DE SOUZA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEDRO HENRIQUE GOMES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDRE VINICIUS DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELINAIANE MARIANA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDREW BERNARDO TEODORO DOS SANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALINE RODRIGUES BRASIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIARDO DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUIZ HENRIQUE MARQUES PRADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RENARA FERREIRA LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAMELA CRISTINA SIQUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THAYNARA MONTEIRO VASQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAQUELINE MONTEIRO MEDEIROS NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAFAELLA DE ABREU MIRANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BENEDITO LUIZ ESTRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOAO P RODRIGUES CHAGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALDILEIA CRISTINA SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASSIA SIMONE RIBEIRO DE CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GELSON WAGNER PEREIRA DOURADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DALCI FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTEFANI DUARTE BRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARLA CRISTINA CARVALHO SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIANCA ANTUNES MENDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARIELLEN JOSE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSIAS SANCHO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KESSIA TAVARES GONCALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLAUCIA PEREIRA DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTONIO CARLOS RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDNA FRANCISCA RODRIGUES DA SI LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIPHANY PIRES DE MENDONCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRANCIELE MAGALHAES DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALDINAR SILVA LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JEAN CARLOS DE QUEIROS ESTEVAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIANA MARTINS DA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JONATHAS PABLO DE QUEIROZ SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JESSICA OLIVEIRA SOARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROBSON RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEIDE DA SILVA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUCAS BEZERRA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAROLAINE GONCALVES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCIANA CORDOVIL RAMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRANCISCA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAQUELINE DA SILVA GONCALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EVANIR PEREIRA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAROLAYNY BATISTA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDIMAR CARVALHO STEMBERQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENOR DE SA ABREU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIA ELIANA DA ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABELLE FREIRE SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIEGO FRAGA BARBOSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA ROSA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABELLA DA SILVA CHAGAS MORAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RODRIGO FERREIRA ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLAVIA FERREIRA LACERDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALISON KLEBER FERNANDES XAVIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOAO VICTOR SILVA SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALINE SANTANA DE ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA CLAUDIA FRANCISCO SOARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALCEDINO PAULA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARLOS HENRIQUE VAREIRO PONTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CICERO FEITOSA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALESSANDRO LOPES MENEGUELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KESSER JOHNES DE OLIVEIRA SANTAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARINA SCOLARI GOSCH DE MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANGELICA DO ESPIRITO SANTO SIGNATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GESIANE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEISIANE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIBELE MARIA LOPES PULGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLAUDIO SCHARFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADRIANA GOMES RIBEIRO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TANIA FERREIRA DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABELLE FATIMA DE CAMPOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THAUANY LAIS DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GUILHERME PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAMILA DO NASCIMENTO E SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUCAS PEREIRA DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIGUEL GOMES RUFINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATRICIA ALVES DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EULALIA CAETANO RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUIZ BENIGNO FERREIRA DO AMARAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MICHELE DA SILVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GENIVAL MORO DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROGERIO DOS SANTOS RAMALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARINA GOMES DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIENE SANTANA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEIDIANA LOPES DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLAUBER DE ALMEIDA MICHNIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FERNANDA CARNEIRO FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KARINE PEREIRA MIRANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANNE CAROLINE VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEUZA INACIA DE JESUS VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEATRIZ MARTINS COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA VIRGINIA SANTOS ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VANESSA ALVES CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VITORIA FERNANDA SILVA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARA VITORIA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FELIPE OLIVEIRA DE MACEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TYELE KARLA MORAIS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEIDE LIMA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SILVANA GAMA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAINE FERNANDES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTONIA DINALVA DA SILVA LEITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALINE GONCALVES RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADRIELLE DOS SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DÂMARYS VITÓRIA RIBEIRO OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAMILA FREITAS DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KIMBERLY DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUCAS CEZAR DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEONARDO RIBEIRO DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIMONE NOGUEIRA DE MATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADEMIR VIEIRA BORBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRAZIELLE COSTA BRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSENILDO VERAS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REGINALDO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALLISON DE SOUSA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAIS FERREIRA HECKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSE CLEOVIR DA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOICIMARA DA CONCEICAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RONIMAR JARDIM DE REZENDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BRUNO SILVA DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LINSMARINA ASSIS NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAREN MIDORI TAKAHASHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIENE BIANCA MARTINS SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VANIA DE PAULA DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARLEIDE CORREIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEOVAN LEAL DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABRIELA ISNAIRA PEREIRA DA CR SANTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABRIELY FERNANDES SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEITON CRUZ DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALESSANDRA VIEIRA FLORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISRAEL PEREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMANDA DA SILVA ARAUJO</t>
   </si>
 </sst>
 </file>
@@ -398,10 +718,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67331ADB-CE6D-4877-85F6-50E920FF6A1D}" name="Tabela1" displayName="Tabela1" ref="A1:C101" totalsRowShown="0">
-  <autoFilter ref="A1:C101" xr:uid="{67331ADB-CE6D-4877-85F6-50E920FF6A1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67331ADB-CE6D-4877-85F6-50E920FF6A1D}" name="Tabela1" displayName="Tabela1" ref="A1:C171" totalsRowShown="0">
+  <autoFilter ref="A1:C171" xr:uid="{67331ADB-CE6D-4877-85F6-50E920FF6A1D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C7C60B8A-3917-4FA3-9BC5-75230FCED042}" name="Número" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7C60B8A-3917-4FA3-9BC5-75230FCED042}" name="Número" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6E867826-8B98-4F83-A0D8-E7FEADDFAD8C}" name="Pessoa"/>
     <tableColumn id="3" xr3:uid="{39A71216-8ED1-4260-93FD-E17117B7221F}" name="Mensagem"/>
   </tableColumns>
@@ -413,7 +733,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A86823E4-3613-44BC-A04A-88601F411D80}" name="Tabela13" displayName="Tabela13" ref="A1:C50" totalsRowShown="0">
   <autoFilter ref="A1:C50" xr:uid="{A86823E4-3613-44BC-A04A-88601F411D80}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A4E0971D-76A9-47C5-A16B-2164E6C1874E}" name="Número" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A4E0971D-76A9-47C5-A16B-2164E6C1874E}" name="Número" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{41CB4DB6-C774-4BEA-94B4-6EAB2250B456}" name="Pessoa"/>
     <tableColumn id="3" xr3:uid="{721023BA-BD8B-481F-8587-824CA1C801CE}" name="Mensagem"/>
   </tableColumns>
@@ -684,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,1102 +1030,1462 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5563992729729</v>
+        <v>556191215714</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5564993446507</v>
+        <v>556392482948</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5561991146432</v>
+        <v>556193841245</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5569992669581</v>
+        <v>556291637278</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>556294260886</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5561994400583</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5561993769187</v>
+        <v>556592899905</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5567993026520</v>
+        <v>556493347925</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5569993636147</v>
+        <v>556193202198</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5567991973221</v>
+        <v>556191111618</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>5564992679516</v>
+        <v>556392854938</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5562991847162</v>
+        <v>556193040956</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5561991763798</v>
+        <v>556791889984</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5561993010583</v>
+        <v>556392401260</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5561991517610</v>
+        <v>556392125693</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5563992731601</v>
+        <v>556791110576</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>5561991211980</v>
+        <v>556392545467</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5561993840443</v>
+        <v>556593373866</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>5561994049547</v>
+        <v>556391149448</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>5565993587735</v>
+        <v>556392408692</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>5563992775067</v>
+        <v>556291777507</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5561995939107</v>
+        <v>556292986888</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5562991313317</v>
+        <v>556791174523</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>5562994670766</v>
+        <v>556194445019</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>5564992014855</v>
+        <v>556293751900</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5565992466997</v>
+        <v>556291889727</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5564993424003</v>
+        <v>556791666256</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5561992733676</v>
+        <v>556592324209</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5561991834584</v>
+        <v>556492289904</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5562993883234</v>
+        <v>556791853716</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5567991170901</v>
+        <v>556392069140</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5567991566293</v>
+        <v>556392427829</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>5562995773151</v>
+        <v>556792361672</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>5562993455162</v>
+        <v>556295533150</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>5563992869273</v>
+        <v>556292012455</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>5563992732160</v>
+        <v>556194392078</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>5563992160282</v>
+        <v>556192399937</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5566992176578</v>
+        <v>556193010421</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>5566992161741</v>
+        <v>556392337541</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>5566992393618</v>
+        <v>556791782259</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>5566992059389</v>
+        <v>556593082975</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5566992406866</v>
+        <v>556194134500</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>5566992410051</v>
+        <v>556692837506</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5566992000592</v>
+        <v>556492318207</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>5562991402022</v>
+        <v>556191842223</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>5567991694205</v>
+        <v>556793351491</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>5567993097726</v>
+        <v>556192847023</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>5567992078981</v>
+        <v>556692578412</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>5567992526785</v>
+        <v>556194109013</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>5567992341200</v>
+        <v>556294866111</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>5567992054362</v>
+        <v>556293778973</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5562993169614</v>
+        <v>556293568450</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5561994356594</v>
+        <v>556792793582</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5569992572962</v>
+        <v>556193752799</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5569993649209</v>
+        <v>556493111805</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5569992319712</v>
+        <v>556191635836</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5563992923371</v>
+        <v>556993154402</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5563992625097</v>
+        <v>556493082649</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5561995904401</v>
+        <v>556492642807</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5561993412171</v>
+        <v>556293163881</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5569992009148</v>
+        <v>556191671454</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>5561991858020</v>
+        <v>556392217828</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5561993288835</v>
+        <v>556192141128</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>5561994335187</v>
+        <v>556791535227</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>5562994198200</v>
+        <v>556792207377</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>5562994407443</v>
+        <v>556791612710</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>5561991380365</v>
+        <v>556292575448</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5562993237137</v>
+        <v>556291586830</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>5563992321862</v>
+        <v>556792783367</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>5565993219219</v>
+        <v>556292507664</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>5561992896972</v>
+        <v>556192716541</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>5565992414197</v>
+        <v>556192206637</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>5567991415618</v>
+        <v>556391018901</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>5561985460545</v>
+        <v>556293973920</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>5568992219295</v>
+        <v>556792700485</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5561995878199</v>
+        <v>556191788733</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>5565993515924</v>
+        <v>556392070164</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>5564993447657</v>
+        <v>556392990160</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>5564993352981</v>
+        <v>556191595833</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>5561991345898</v>
+        <v>556592544476</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>5561993868174</v>
+        <v>556295084382</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>5569993986388</v>
+        <v>556192703602</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>5562992050551</v>
+        <v>556993843628</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>5567991336781</v>
+        <v>556793341644</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>5562994483001</v>
+        <v>556592365206</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>5562991138347</v>
+        <v>556791736952</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>5562994573912</v>
+        <v>556793233146</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>5569992325200</v>
+        <v>556392458898</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>5569993917287</v>
+        <v>556692417760</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>5564993232882</v>
+        <v>556791548731</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>5561994390210</v>
+        <v>556392734558</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>5565993508194</v>
+        <v>556593442686</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>5569992805384</v>
+        <v>556592611845</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>5565993503573</v>
+        <v>556592185237</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>5563991072216</v>
+        <v>556992142409</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>5562993258276</v>
+        <v>556593456850</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>5565993333864</v>
+        <v>556191308050</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>5562994981003</v>
+        <v>556593186644</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>5562993781126</v>
+        <v>556592999359</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>5566992417001</v>
+        <v>556194599192</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>5561994474731</v>
+        <v>556294479164</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>52</v>
+        <v>147</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>556293879815</v>
+      </c>
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>556194395866</v>
+      </c>
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>556191087716</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>556295224821</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>556392769171</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>556492627848</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>556292601744</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>556294601056</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>556492960253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>556791940839</v>
+      </c>
+      <c r="B111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>556295668941</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>556992299284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>556392435680</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>556392681211</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>556392347094</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>556191890807</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>556193380191</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>556791624139</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>556793326175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>556492927206</v>
+      </c>
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>556493148271</v>
+      </c>
+      <c r="B122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>556195231596</v>
+      </c>
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>556793333755</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>556192362489</v>
+      </c>
+      <c r="B125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>556791951060</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>556195679309</v>
+      </c>
+      <c r="B127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>556293928770</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>556294428838</v>
+      </c>
+      <c r="B129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>556293298417</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>556191657280</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>556195939180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>556193116039</v>
+      </c>
+      <c r="B133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>556191725499</v>
+      </c>
+      <c r="B134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>556392856362</v>
+      </c>
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>556192397077</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>556392415844</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>556194389185</v>
+      </c>
+      <c r="B138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>556792979613</v>
+      </c>
+      <c r="B139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>556392990777</v>
+      </c>
+      <c r="B140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>556192907884</v>
+      </c>
+      <c r="B141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>556391143747</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>556993558345</v>
+      </c>
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>556892101309</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>556392031425</v>
+      </c>
+      <c r="B145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>556793422091</v>
+      </c>
+      <c r="B146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>556392707585</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>556692210510</v>
+      </c>
+      <c r="B148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>556194314074</v>
+      </c>
+      <c r="B149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>556593625331</v>
+      </c>
+      <c r="B150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>556692054647</v>
+      </c>
+      <c r="B151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>556193979361</v>
+      </c>
+      <c r="B152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>556692394860</v>
+      </c>
+      <c r="B153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>556692222806</v>
+      </c>
+      <c r="B154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>556692041440</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>556593281819</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>556492960083</v>
+      </c>
+      <c r="B157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>556492649820</v>
+      </c>
+      <c r="B158" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>556191245588</v>
+      </c>
+      <c r="B159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>556295298825</v>
+      </c>
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>556781517153</v>
+      </c>
+      <c r="B161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>556194168570</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>556293991693</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>556392064166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>556391106549</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>556193518722</v>
+      </c>
+      <c r="B166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>556194210983</v>
+      </c>
+      <c r="B167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>556194213103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>556191306476</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>556392263415</v>
+      </c>
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>556192872826</v>
+      </c>
+      <c r="B171" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
